--- a/Running projects/BAF Head Office/Running Bill No 1.xlsx
+++ b/Running projects/BAF Head Office/Running Bill No 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\BAF Head Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409B784C-C2B8-46A4-AA14-7E9D16D1DDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C4B33E-9F84-4242-847F-5E0B3045C6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="111">
   <si>
     <t>S.NO</t>
   </si>
@@ -370,12 +370,37 @@
   <si>
     <t>RUNNING BILL NO 1</t>
   </si>
+  <si>
+    <t>Less 5.5% on Material Amount</t>
+  </si>
+  <si>
+    <t>Less 5/118% on material amount due to Unregistered</t>
+  </si>
+  <si>
+    <t>Less 11% on Labour</t>
+  </si>
+  <si>
+    <t>Less 20% on SST</t>
+  </si>
+  <si>
+    <t>Total Deductins</t>
+  </si>
+  <si>
+    <t>Net Payable</t>
+  </si>
+  <si>
+    <t>Received on 08 March 24</t>
+  </si>
+  <si>
+    <t>NIL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;?_-;_-@_-"/>
@@ -906,7 +931,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1218,6 +1243,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1710,10 +1745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A10:E31"/>
+  <dimension ref="A10:H49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2299,6 +2334,124 @@
       <c r="B31" s="90"/>
       <c r="C31" s="90"/>
     </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="106">
+        <f>C27*8%</f>
+        <v>623716.80000000005</v>
+      </c>
+      <c r="D34" s="106">
+        <f>D27*8%</f>
+        <v>93806.724000000002</v>
+      </c>
+      <c r="E34" s="107"/>
+      <c r="H34" s="108"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="107"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="106"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="107"/>
+      <c r="G36" s="108"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="106">
+        <f>C27*5.5%</f>
+        <v>428805.3</v>
+      </c>
+      <c r="D37" s="106"/>
+      <c r="E37" s="107"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="106">
+        <f>C27*5/118</f>
+        <v>330358.4745762712</v>
+      </c>
+      <c r="D38" s="106"/>
+      <c r="E38" s="107"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="106"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="107"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="106">
+        <f>D27*11%</f>
+        <v>128984.2455</v>
+      </c>
+      <c r="D40" s="106"/>
+      <c r="E40" s="107"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="106">
+        <f>D26*20%</f>
+        <v>26979.810000000005</v>
+      </c>
+      <c r="D41" s="106"/>
+      <c r="E41" s="107"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="106"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="107"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="106">
+        <f>SUM(C37:C41)</f>
+        <v>915127.8300762712</v>
+      </c>
+      <c r="D43" s="106"/>
+      <c r="E43" s="107"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="106"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="107"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="106">
+        <f>E27-C43</f>
+        <v>8053916.2199237291</v>
+      </c>
+      <c r="D45" s="106"/>
+      <c r="E45" s="107"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="109">
+        <f>C45</f>
+        <v>8053916.2199237291</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A16:E16"/>
